--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1320.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1320.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.037961751492867</v>
+        <v>0.9768130779266357</v>
       </c>
       <c r="B1">
-        <v>2.504017322453987</v>
+        <v>1.743854641914368</v>
       </c>
       <c r="C1">
-        <v>5.098766969568962</v>
+        <v>5.775450706481934</v>
       </c>
       <c r="D1">
-        <v>2.276536350052074</v>
+        <v>3.43626594543457</v>
       </c>
       <c r="E1">
-        <v>1.240458799745635</v>
+        <v>0.426500529050827</v>
       </c>
     </row>
   </sheetData>
